--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_40.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718392.2733996337</v>
+        <v>758430.7527902839</v>
       </c>
     </row>
     <row r="8">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>312.4859064277796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>202.1243563288842</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>60.3823564508123</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>99.34508049624289</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>386.0957070569908</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>108.6818856190787</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>22.17804770844096</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>62.56386682245585</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>134.6060636769417</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>40.56696428347033</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>226.7424293409078</v>
       </c>
       <c r="X10" t="n">
-        <v>150.3227969010359</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784683</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>146.2506239775118</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3049769768881424</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>80.83119524460984</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>258.5287237643943</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>54.13622231948327</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>109.4779828373166</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>40.59850439612215</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>23.1168241398085</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>285.4610071912526</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T28" t="n">
-        <v>150.6781871655179</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857186</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692751</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463138</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689356</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463153</v>
+        <v>42.28735533463091</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,19 +3478,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789509</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,19 +3715,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789461</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287482</v>
       </c>
       <c r="U43" t="n">
         <v>218.1054622689367</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>49.38162151975473</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.8923097339044</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.337372245452</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C2" t="n">
-        <v>1173.337372245452</v>
+        <v>1413.148854308789</v>
       </c>
       <c r="D2" t="n">
-        <v>1173.337372245452</v>
+        <v>1054.883155702039</v>
       </c>
       <c r="E2" t="n">
-        <v>787.5491196472076</v>
+        <v>669.0949031037944</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>258.1089983141869</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.337372245452</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="C4" t="n">
-        <v>667.1367049631895</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="D4" t="n">
-        <v>517.0200655508537</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="E4" t="n">
-        <v>517.0200655508537</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508537</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>2305.297090124192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1659.880644283887</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C5" t="n">
-        <v>1659.880644283887</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="D5" t="n">
-        <v>1301.614945677136</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="E5" t="n">
-        <v>915.826693078892</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="F5" t="n">
-        <v>908.8811923296886</v>
+        <v>924.5993414832021</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9173842278755</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>163.7226642638783</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.019976259699</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>1659.880644283887</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.9331591332467</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="C7" t="n">
-        <v>664.9331591332467</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="D7" t="n">
-        <v>664.9331591332467</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="E7" t="n">
-        <v>517.0200655508536</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>76.34505021272906</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>76.34505021272906</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>76.34505021272906</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.34505021272906</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>664.9331591332467</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>664.9331591332467</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>664.9331591332467</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>664.9331591332467</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>664.9331591332467</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>664.9331591332467</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X7" t="n">
-        <v>664.9331591332467</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.9331591332467</v>
+        <v>223.2349977106394</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>357.2980827724836</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>343.3746787110745</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2601.143669949251</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2382.509002921313</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2382.509002921313</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2382.509002921313</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.509002921313</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.509002921313</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.509002921313</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
         <v>200.8329293182748</v>
@@ -4948,19 +4948,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092202</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092202</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>352.6741383092202</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>352.6741383092202</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5072,13 +5072,13 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>204.8357644254377</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>204.8357644254377</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>818.7328341823263</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1139.068153712028</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N12" t="n">
-        <v>1943.479731976179</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="O12" t="n">
-        <v>2612.943493278838</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.943493278838</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>244.9449944678736</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>244.9449944678736</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>244.9449944678736</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>244.9449944678736</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.613099482868</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>898.4844606964261</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>643.7999724905393</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>643.7999724905393</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X13" t="n">
-        <v>415.8104215925219</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8104215925219</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="14">
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,13 +5312,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5358,25 +5358,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>640.9830968804115</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1254.8801666373</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>2023.248313029762</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N15" t="n">
-        <v>2023.248313029762</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O15" t="n">
-        <v>2023.248313029762</v>
+        <v>1818.001057576792</v>
       </c>
       <c r="P15" t="n">
-        <v>2543.548934765509</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1306.193495155475</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1306.193495155475</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.064856369034</v>
+        <v>926.7810320207402</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>926.7810320207402</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2334.498159098441</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2564.46126496679</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M18" t="n">
-        <v>3332.829411359251</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N18" t="n">
-        <v>4137.240989623402</v>
+        <v>1787.31736448724</v>
       </c>
       <c r="O18" t="n">
-        <v>4385.994403707365</v>
+        <v>2036.070778571203</v>
       </c>
       <c r="P18" t="n">
-        <v>4568.637881320716</v>
+        <v>2556.37140030695</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>299.8132378906419</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>299.8132378906419</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188989</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W19" t="n">
-        <v>709.4512536188989</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X19" t="n">
-        <v>481.4617027208816</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.4617027208816</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M21" t="n">
-        <v>1511.129877493458</v>
+        <v>1463.642810687059</v>
       </c>
       <c r="N21" t="n">
-        <v>1855.650533131076</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O21" t="n">
-        <v>2135.190598349773</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>503.5547239186418</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>503.5547239186418</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>503.5547239186418</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.645933059507</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.645933059507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.96144485362</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>731.5442748166591</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X22" t="n">
-        <v>503.5547239186418</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y22" t="n">
-        <v>503.5547239186418</v>
+        <v>306.4010034395785</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K24" t="n">
-        <v>188.1432968786754</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>802.0403666355641</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1570.408513028025</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N24" t="n">
-        <v>2374.820091292176</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>675.7912901164498</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>675.7912901164498</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>675.7912901164498</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>447.8017392184324</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,10 +6221,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6239,19 +6239,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>327.180197328635</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1095.548343721096</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N27" t="n">
-        <v>1899.959921985247</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O27" t="n">
-        <v>2569.423683287906</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P27" t="n">
-        <v>2569.423683287906</v>
+        <v>2384.578499078682</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4037.957270257085</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>4508.734373873766</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4219.605735087324</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>4219.605735087324</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>4219.605735087324</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4219.605735087324</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>4219.605735087324</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6528,31 +6528,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181232</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>469.3397794245873</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>789.6750989542891</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975556</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O30" t="n">
         <v>2123.441607278215</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506717</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,10 +6640,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,28 +6689,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>319.1024529356174</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171746</v>
+        <v>549.0655588039665</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.765035414674</v>
+        <v>1317.433705196428</v>
       </c>
       <c r="N33" t="n">
-        <v>2192.176613678825</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.930027762787</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>594.3910118193891</v>
       </c>
       <c r="L36" t="n">
-        <v>904.39166832551</v>
+        <v>1208.288081576278</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.726987855212</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.000326757765</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2328.464088060424</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,37 +7151,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,28 +7190,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>468.1423362718767</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L39" t="n">
-        <v>714.9074641783408</v>
+        <v>494.0288345518301</v>
       </c>
       <c r="M39" t="n">
-        <v>1483.275610570802</v>
+        <v>1262.396980944291</v>
       </c>
       <c r="N39" t="n">
-        <v>2287.687188834953</v>
+        <v>2066.808559208443</v>
       </c>
       <c r="O39" t="n">
-        <v>2536.440602918915</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3481.793971740469</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>3381.677879852603</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>3300.381331480309</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>3221.288328937957</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>3143.218472480087</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>3043.863241839949</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>2962.265324427934</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>2999.384087782176</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>3217.020063255132</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>3532.182679494606</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>4126.361372489053</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>3905.764293492133</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>3746.594833634157</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>3594.622345530668</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7406,55 +7406,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>566.6947980556461</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M42" t="n">
-        <v>887.0301175853479</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N42" t="n">
-        <v>1691.441695849499</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O42" t="n">
-        <v>2360.905457152158</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
-        <v>2543.548934765509</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103121</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7631,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,22 +7661,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
         <v>4262.357857465301</v>
@@ -7688,10 +7688,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>785.3354848189988</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
-        <v>1092.65561809896</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1897.067196363111</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2145.820610447073</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.3055067228584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3055067228584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>844.0280401273991</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W46" t="n">
-        <v>554.6108700904385</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X46" t="n">
-        <v>554.6108700904385</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="Y46" t="n">
-        <v>413.3055067228584</v>
+        <v>392.0201325405894</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>230.6819384502055</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,10 +9015,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,10 +9261,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>367.188827133542</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>187.7759119572196</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,13 +9732,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>88.71493733863173</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>183.9411781172656</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,13 +10197,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>73.5511891649208</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0613544621599</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>183.6192262673545</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10674,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>105.4653648873944</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>197.7336098312354</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>20.24294448586576</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.2425840815011</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>117.0896147389934</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>27.70862863418301</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>94.47925069872909</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>116.2316725517206</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>139.2334757858152</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>198.4307369185807</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>14.74113413690279</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.7763452073247095</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T28" t="n">
-        <v>70.86937389287138</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26032,10 +26032,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>176.3280338692824</v>
       </c>
       <c r="Y46" t="n">
-        <v>78.69234361819042</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="11">
@@ -26320,28 +26320,28 @@
         <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754173</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
         <v>782058.119475418</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.119475418</v>
       </c>
       <c r="K2" t="n">
         <v>821041.7698642845</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642847</v>
       </c>
       <c r="M2" t="n">
         <v>821041.7698642847</v>
@@ -26350,10 +26350,10 @@
         <v>821041.7698642844</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642847</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371248</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759022</v>
+        <v>787.7936905759136</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.793690575897</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759234</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757946</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757819</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189638</v>
+        <v>23206.58093189627</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189626</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710055</v>
+        <v>9155.673405710142</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202547</v>
+        <v>599123.5526202548</v>
       </c>
       <c r="D6" t="n">
         <v>599123.5526202547</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.9633592293</v>
+        <v>164122.9633592288</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361253</v>
+        <v>689282.9998361252</v>
       </c>
       <c r="G6" t="n">
         <v>689282.9998361255</v>
       </c>
       <c r="H6" t="n">
-        <v>689282.9998361254</v>
+        <v>689282.9998361252</v>
       </c>
       <c r="I6" t="n">
-        <v>689282.9998361254</v>
+        <v>689282.9998361252</v>
       </c>
       <c r="J6" t="n">
-        <v>512859.7806435322</v>
+        <v>512859.7806435327</v>
       </c>
       <c r="K6" t="n">
         <v>645614.5710086504</v>
       </c>
       <c r="L6" t="n">
-        <v>700120.0831123627</v>
+        <v>700120.0831123629</v>
       </c>
       <c r="M6" t="n">
         <v>565319.0678785258</v>
@@ -26558,10 +26558,10 @@
         <v>700120.0831123627</v>
       </c>
       <c r="O6" t="n">
-        <v>700120.0831123628</v>
+        <v>700120.083112363</v>
       </c>
       <c r="P6" t="n">
-        <v>689282.9998361253</v>
+        <v>689282.9998361252</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964062</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,13 +26808,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26826,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>94.3901393139318</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>211.6598136919108</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>106.8644646478155</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.82580834555226</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>27.68846296380417</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>43.24943062578255</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>23.02191148009603</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.10132515770198</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>189.3167090874155</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.8487485255012</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>59.78056899568315</v>
       </c>
       <c r="X10" t="n">
-        <v>75.38685848800122</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.230850401199483e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,7 +31142,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31364,7 +31364,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,13 +31379,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516336</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.4344768999344</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,10 +31838,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>109.452321594088</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31850,25 +31850,25 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>160.3289043994486</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,25 +32081,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>331.1308614851326</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,16 +32306,16 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -32324,25 +32324,25 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>225.0728617982297</v>
+        <v>207.8626882973228</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.3291139715629</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>171.3135836203298</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>323.012213518837</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>206.1379874630261</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>56.53888480510415</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,19 +34199,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34220,25 +34220,25 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>200.1403268751267</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>168.1581063436</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>408.5315900543038</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>108.7057302678301</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35498,19 +35498,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>411.5949792317336</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>381.2573770381447</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>515.6192227107396</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>295.1683754480572</v>
+        <v>67.8809142113013</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>225.0547932115236</v>
+        <v>564.9001437995445</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>49.9344729828606</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.8083522701565</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.95940403124411</v>
+        <v>241.4090972701574</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>598.833559628141</v>
       </c>
       <c r="N30" t="n">
-        <v>671.0128757790573</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520613</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>224.1266277528601</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>683.4857315126261</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>334.1946648552938</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>438.6599382854072</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>332.7617855012458</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>307.8049596373892</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>59.17923005136119</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>451.4064017074118</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>400.444071867185</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4416302.508488689</v>
+        <v>4487954.301048736</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>758430.7527902839</v>
+        <v>554307.9978580616</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6961766.03358869</v>
+        <v>6866658.509440956</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>202.1243563288842</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>42.02575271987161</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>99.34508049624289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>38.96575664273605</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>386.0957070569908</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0.3388308260196663</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>25.77357533681055</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.17804770844096</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>134.6060636769417</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>131.2798580005666</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0115294480432</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>226.7424293409078</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>146.2506239775118</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>87.69502478598764</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>258.5287237643943</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>232.19917056887</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>96.64527172410727</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>109.4779828373166</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.59850439612215</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>114.5779100067049</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,10 +2323,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1796758467005</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>108.0101751531995</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>73.16334503090525</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857186</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463132</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>254.1819470231903</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>103.7702737610497</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463091</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>203.5330926723471</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>242.5950317871704</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287482</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>128.2722911977716</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>49.38162151975473</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>105.6571329437495</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1782.111371249201</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1413.148854308789</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.883155702039</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>669.0949031037944</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>258.1089983141869</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2599.670146276118</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2599.670146276118</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2345.908360914209</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1782.111371249201</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2305.297090124192</v>
+        <v>2476.141276043805</v>
       </c>
       <c r="C4" t="n">
-        <v>2305.297090124192</v>
+        <v>2307.205093115898</v>
       </c>
       <c r="D4" t="n">
-        <v>2305.297090124192</v>
+        <v>2307.205093115898</v>
       </c>
       <c r="E4" t="n">
-        <v>2305.297090124192</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F4" t="n">
-        <v>2305.297090124192</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G4" t="n">
-        <v>2305.297090124192</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
         <v>2022.963088632153</v>
@@ -4507,31 +4509,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>2305.297090124192</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>2305.297090124192</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>2305.297090124192</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>2305.297090124192</v>
+        <v>2657.789740874045</v>
       </c>
       <c r="W4" t="n">
-        <v>2305.297090124192</v>
+        <v>2657.789740874045</v>
       </c>
       <c r="X4" t="n">
-        <v>2305.297090124192</v>
+        <v>2657.789740874045</v>
       </c>
       <c r="Y4" t="n">
-        <v>2305.297090124192</v>
+        <v>2657.789740874045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.58524627281</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.58524627281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.58524627281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.58524627281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>924.5993414832021</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.143481161163</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2092.080593817592</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>2092.080593817592</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1718.614835556512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336931</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>223.2349977106394</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="C7" t="n">
-        <v>223.2349977106394</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="D7" t="n">
-        <v>223.2349977106394</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="E7" t="n">
-        <v>223.2349977106394</v>
+        <v>79.97689630199127</v>
       </c>
       <c r="F7" t="n">
-        <v>76.34505021272906</v>
+        <v>79.97689630199127</v>
       </c>
       <c r="G7" t="n">
-        <v>76.34505021272906</v>
+        <v>79.97689630199127</v>
       </c>
       <c r="H7" t="n">
-        <v>76.34505021272906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>76.34505021272906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.2349977106394</v>
+        <v>409.5384547146241</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>768.2839875620912</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C8" t="n">
-        <v>768.2839875620912</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D8" t="n">
-        <v>768.2839875620912</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>768.2839875620912</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>357.2980827724836</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>343.3746787110745</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887293</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626213</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626213</v>
+        <v>1937.315630222944</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,10 +4892,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.9495687306105</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W10" t="n">
-        <v>350.9495687306105</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X10" t="n">
-        <v>350.9495687306105</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.9495687306105</v>
+        <v>2179.742370083244</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5029,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5124,19 +5126,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743751</v>
+        <v>1442.796708849623</v>
       </c>
       <c r="N12" t="n">
-        <v>1608.660951743751</v>
+        <v>1787.31736448724</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.8811773957805</v>
+        <v>799.6537879979912</v>
       </c>
       <c r="C13" t="n">
-        <v>244.9449944678736</v>
+        <v>630.7176050700843</v>
       </c>
       <c r="D13" t="n">
-        <v>244.9449944678736</v>
+        <v>480.6009656577486</v>
       </c>
       <c r="E13" t="n">
-        <v>244.9449944678736</v>
+        <v>332.6878720753555</v>
       </c>
       <c r="F13" t="n">
-        <v>244.9449944678736</v>
+        <v>185.7979245774451</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>185.7979245774451</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>1044.311772267568</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X13" t="n">
-        <v>816.3222213695503</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.5296422260202</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5263,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,22 +5281,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>149.9242810310125</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>560.8145498755251</v>
       </c>
       <c r="L15" t="n">
-        <v>904.39166832551</v>
+        <v>560.8145498755251</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.726987855212</v>
+        <v>1329.182696267987</v>
       </c>
       <c r="N15" t="n">
-        <v>1569.24764349283</v>
+        <v>1673.703351905604</v>
       </c>
       <c r="O15" t="n">
-        <v>1818.001057576792</v>
+        <v>2343.167113208264</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402495</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>926.7810320207402</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>926.7810320207402</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="W16" t="n">
-        <v>637.3638619837795</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="X16" t="n">
-        <v>637.3638619837795</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.5712828402495</v>
+        <v>840.6662285267281</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5601,19 +5603,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="M18" t="n">
-        <v>1442.796708849622</v>
+        <v>994.7638819868627</v>
       </c>
       <c r="N18" t="n">
-        <v>1787.31736448724</v>
+        <v>1339.284537624481</v>
       </c>
       <c r="O18" t="n">
-        <v>2036.070778571203</v>
+        <v>2008.74829892714</v>
       </c>
       <c r="P18" t="n">
-        <v>2556.37140030695</v>
+        <v>2529.048920662887</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429513</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>354.6908600059907</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X19" t="n">
-        <v>244.1070389581962</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>526.9050513325897</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5835,22 +5837,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>904.39166832551</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M21" t="n">
-        <v>1463.642810687059</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N21" t="n">
-        <v>1808.163466324677</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1383.181007924867</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1159.395592714373</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1159.395592714373</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>1159.395592714373</v>
       </c>
       <c r="W22" t="n">
-        <v>755.183133481126</v>
+        <v>1159.395592714373</v>
       </c>
       <c r="X22" t="n">
-        <v>527.1935825831087</v>
+        <v>931.4060418163556</v>
       </c>
       <c r="Y22" t="n">
-        <v>306.4010034395785</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5984,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6005,34 +6007,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M24" t="n">
-        <v>1442.339749591389</v>
+        <v>904.39166832551</v>
       </c>
       <c r="N24" t="n">
-        <v>1786.860405229007</v>
+        <v>1248.912323963128</v>
       </c>
       <c r="O24" t="n">
-        <v>2035.613819312969</v>
+        <v>1918.376085265787</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2438.676707001535</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1189.895073450021</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>900.7664346635789</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>646.0819464576921</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="X25" t="n">
-        <v>318.009670603816</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>356.6647764207315</v>
       </c>
     </row>
     <row r="26">
@@ -6221,46 +6223,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>180.2819796275111</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>794.1790493843997</v>
       </c>
       <c r="M27" t="n">
-        <v>1608.660951743751</v>
+        <v>794.1790493843997</v>
       </c>
       <c r="N27" t="n">
-        <v>1953.181607381369</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
-        <v>2201.935021465331</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2384.578499078682</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1425.013901839816</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1225.093891755369</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1225.093891755369</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>935.9652529689267</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>935.9652529689267</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028589</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>193.8373036381272</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>193.8373036381272</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>807.7343733950158</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>3886.7784005573</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>3886.7784005573</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>3886.7784005573</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>4404.185121492278</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>4404.185121492278</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>4114.767951455317</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>3886.7784005573</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>3886.7784005573</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,58 +6694,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>319.1024529356174</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>549.0655588039665</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M33" t="n">
-        <v>1317.433705196428</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1953.178696008814</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2473.479317744561</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>352.4535582568371</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>352.4535582568371</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>352.4535582568371</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>534.1020230870769</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,16 +6952,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>594.3910118193891</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1208.288081576278</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1528.62340110598</v>
+        <v>1499.368801821511</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822468</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>264.0657286834809</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>494.0288345518301</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M39" t="n">
-        <v>1262.396980944291</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="N39" t="n">
-        <v>2066.808559208443</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>4033.66834805521</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>4033.66834805521</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>4033.66834805521</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>4504.73398292241</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>4215.31681288545</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>4215.31681288545</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>4215.31681288545</v>
       </c>
     </row>
     <row r="41">
@@ -7388,43 +7390,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7433,22 +7435,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>453.4534626624754</v>
       </c>
       <c r="L42" t="n">
-        <v>904.3916683255102</v>
+        <v>683.4165685308245</v>
       </c>
       <c r="M42" t="n">
-        <v>1224.726987855212</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="N42" t="n">
-        <v>1569.24764349283</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183167</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>3925.360448591585</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>3925.360448591585</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>3775.243809179249</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>4236.576884328664</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>4236.576884328664</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>4107.008913421824</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609669</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>731.31772835508</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W46" t="n">
-        <v>441.9005583181194</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X46" t="n">
-        <v>392.0201325405894</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y46" t="n">
-        <v>392.0201325405894</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>11.32940647006973</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>88.71493733863173</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>88.01402406068672</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720727</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,25 +10190,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>55.6859949621048</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>288.4091825776746</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>73.5511891649208</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>183.6192262673545</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>209.2592797981108</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.24294448586576</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>61.21880358154849</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>27.70862863418301</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>19.93847275495798</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>49.7886909224619</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>116.2316725517206</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.2334757858152</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>83.34289997689832</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>14.74113413690279</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>113.5373859051898</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>36.80100737288754</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>32.05540537538701</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>42.66368888551951</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>82.98990566424388</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>9.542611536657603</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>90.31236215432324</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>176.3280338692824</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>112.9275204083453</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065632</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754173</v>
+        <v>782058.119475418</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754181</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="J2" t="n">
         <v>782058.119475418</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642847</v>
+        <v>782058.119475418</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642847</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642844</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642847</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.5121037125</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759136</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.793690575897</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905757946</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905757819</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189627</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189626</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002542</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710142</v>
+        <v>9155.673405710317</v>
       </c>
       <c r="C6" t="n">
         <v>599123.5526202548</v>
       </c>
       <c r="D6" t="n">
-        <v>599123.5526202547</v>
+        <v>599123.5526202543</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.9633592288</v>
+        <v>164122.9633592292</v>
       </c>
       <c r="F6" t="n">
+        <v>689282.9998361253</v>
+      </c>
+      <c r="G6" t="n">
+        <v>689282.9998361253</v>
+      </c>
+      <c r="H6" t="n">
+        <v>689282.9998361256</v>
+      </c>
+      <c r="I6" t="n">
+        <v>689282.9998361254</v>
+      </c>
+      <c r="J6" t="n">
+        <v>512859.7806435326</v>
+      </c>
+      <c r="K6" t="n">
+        <v>689282.9998361254</v>
+      </c>
+      <c r="L6" t="n">
+        <v>689282.9998361255</v>
+      </c>
+      <c r="M6" t="n">
+        <v>554481.9846022879</v>
+      </c>
+      <c r="N6" t="n">
         <v>689282.9998361252</v>
       </c>
-      <c r="G6" t="n">
-        <v>689282.9998361255</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
         <v>689282.9998361252</v>
       </c>
-      <c r="I6" t="n">
-        <v>689282.9998361252</v>
-      </c>
-      <c r="J6" t="n">
-        <v>512859.7806435327</v>
-      </c>
-      <c r="K6" t="n">
-        <v>645614.5710086504</v>
-      </c>
-      <c r="L6" t="n">
-        <v>700120.0831123629</v>
-      </c>
-      <c r="M6" t="n">
-        <v>565319.0678785258</v>
-      </c>
-      <c r="N6" t="n">
-        <v>700120.0831123627</v>
-      </c>
-      <c r="O6" t="n">
-        <v>700120.083112363</v>
-      </c>
       <c r="P6" t="n">
-        <v>689282.9998361252</v>
+        <v>689282.9998361254</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,13 +26810,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>211.6598136919108</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>132.3899600890999</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>56.82580834555226</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>213.171886681092</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>27.68846296380417</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.8853366822696</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>130.3973135049846</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>23.02191148009603</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>189.3167090874155</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>254.958080655487</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>35.40951857488805</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>59.78056899568315</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31139,7 +31141,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
-        <v>149.8971812516336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,31 +31612,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31840,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>160.3289043994486</v>
+        <v>408.9487365571561</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,22 +32086,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>331.1308614851326</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32233,7 +32235,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32321,22 +32323,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>207.8626882973228</v>
+        <v>224.7237666273861</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32558,22 +32560,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.3291139715629</v>
+        <v>127.7194943662963</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,16 +32785,16 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -32801,16 +32803,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,16 +33022,16 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>221.7453664160006</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -33038,16 +33040,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>171.3135836203298</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,34 +33259,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,40 +33414,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961194</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>81.51477688711927</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,34 +33733,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>57.60510326274931</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,34 +33970,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>428.9877183507994</v>
       </c>
       <c r="O39" t="n">
-        <v>56.53888480510415</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,13 +34207,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34220,19 +34222,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>200.1403268751267</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,34 +34444,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>408.5315900543038</v>
+        <v>179.5498352870708</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>411.5949792317336</v>
+        <v>660.2148113894411</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>53.23958542497639</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>515.6192227107396</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>67.8809142113013</v>
+        <v>84.74199254136454</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>564.9001437995445</v>
+        <v>451.2905241942779</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>295.8083522701565</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>176.0270568457609</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415069</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>83.90392744164167</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>241.4090972701574</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>97.59617391701148</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>598.833559628141</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415069</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>224.1266277528601</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>151.6102905369468</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>334.1946648552938</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>381.1761330907309</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>776.9883806110196</v>
       </c>
       <c r="O39" t="n">
-        <v>307.8049596373892</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>359.83471838605</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,16 +37870,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>451.4064017074118</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>756.532252314524</v>
+        <v>527.550497547291</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4487954.301048736</v>
+        <v>4480937.286157024</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>554307.9978580616</v>
+        <v>482102.5643438146</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.6421222550153</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>42.02575271987161</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>38.96575664273605</v>
+        <v>54.65520119711156</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>86.42906373057829</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3388308260196663</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.77357533681055</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>83.85112090809197</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>131.2798580005666</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>110.0115294480432</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805198</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>100.0394746728263</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>87.69502478598764</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>232.19917056887</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>88.56658743892525</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>96.64527172410727</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.5779100067049</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2529,13 +2529,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>108.0101751531995</v>
+        <v>164.7438675697013</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.16334503090525</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>185.8336559953612</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>254.1819470231903</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>103.7702737610497</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W37" t="n">
-        <v>203.5330926723471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>242.5950317871704</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.2722911977716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.6571329437495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.6405432696254</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1330.938043216202</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1330.938043216202</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>919.9521384265943</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>501.9883303247811</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>174.793610360784</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2599.670146276118</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2599.670146276118</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2345.908360914209</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2014.845473570639</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2014.845473570639</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1641.379715309559</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.240383333747</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2476.141276043805</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>2307.205093115898</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>2307.205093115898</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2657.789740874045</v>
+        <v>672.9217102699579</v>
       </c>
       <c r="W4" t="n">
-        <v>2657.789740874045</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="X4" t="n">
-        <v>2657.789740874045</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y4" t="n">
-        <v>2657.789740874045</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2433.669518756051</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.143481161163</v>
+        <v>2433.669518756051</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.080593817592</v>
+        <v>2102.60663141248</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.080593817592</v>
+        <v>1749.837976142366</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.614835556512</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.4755035807</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.8899898843844</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>227.8899898843844</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>227.8899898843844</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>79.97689630199127</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
-        <v>79.97689630199127</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>79.97689630199127</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.315630222944</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>152.5644878091392</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>138.6410837477301</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6410837477301</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.315630222944</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2179.742370083244</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>2179.742370083244</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>2179.742370083244</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>2179.742370083244</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>2407.731920981262</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,34 +5038,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>674.4285624571609</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M12" t="n">
-        <v>1442.796708849623</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N12" t="n">
-        <v>1787.31736448724</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>799.6537879979912</v>
+        <v>493.0701069575856</v>
       </c>
       <c r="C13" t="n">
-        <v>630.7176050700843</v>
+        <v>493.0701069575856</v>
       </c>
       <c r="D13" t="n">
-        <v>480.6009656577486</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>332.6878720753555</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>185.7979245774451</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>185.7979245774451</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141521</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X13" t="n">
-        <v>1020.446367141521</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y13" t="n">
-        <v>799.6537879979912</v>
+        <v>674.7185717878253</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5281,22 +5281,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>149.9242810310125</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>560.8145498755251</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>560.8145498755251</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1329.182696267987</v>
+        <v>897.6601296826479</v>
       </c>
       <c r="N15" t="n">
-        <v>1673.703351905604</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O15" t="n">
-        <v>2343.167113208264</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>840.6662285267281</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>671.7300455988212</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>840.6662285267281</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>840.6662285267281</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>840.6662285267281</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>840.6662285267281</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5509,58 +5509,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5600,22 +5600,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>674.4285624571609</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>994.7638819868627</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="N18" t="n">
-        <v>1339.284537624481</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O18" t="n">
-        <v>2008.74829892714</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P18" t="n">
-        <v>2529.048920662887</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>345.2565865023499</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C19" t="n">
-        <v>345.2565865023499</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>345.2565865023499</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
         <v>247.6350999123426</v>
@@ -5667,10 +5667,10 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>526.9050513325897</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y19" t="n">
-        <v>526.9050513325897</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>674.4285624571609</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M21" t="n">
-        <v>1121.206181409496</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N21" t="n">
-        <v>1465.726837047114</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O21" t="n">
-        <v>2135.190598349773</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1383.181007924867</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1159.395592714373</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1159.395592714373</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1159.395592714373</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1159.395592714373</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>931.4060418163556</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>904.39166832551</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>904.39166832551</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N24" t="n">
-        <v>1248.912323963128</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.376085265787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2438.676707001535</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>356.6647764207315</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="C25" t="n">
-        <v>356.6647764207315</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1189.895073450021</v>
+        <v>1132.588313433352</v>
       </c>
       <c r="U25" t="n">
-        <v>900.7664346635789</v>
+        <v>1132.588313433352</v>
       </c>
       <c r="V25" t="n">
-        <v>646.0819464576921</v>
+        <v>1132.588313433352</v>
       </c>
       <c r="W25" t="n">
-        <v>356.6647764207315</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="X25" t="n">
-        <v>356.6647764207315</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="Y25" t="n">
-        <v>356.6647764207315</v>
+        <v>843.1711433963917</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,25 +6244,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>180.2819796275111</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>794.1790493843997</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>794.1790493843997</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N27" t="n">
         <v>1138.699705022018</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1425.013901839816</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1225.093891755369</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1225.093891755369</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>935.9652529689267</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>935.9652529689267</v>
+        <v>1022.076868139783</v>
       </c>
       <c r="W28" t="n">
-        <v>646.5480829319661</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="X28" t="n">
-        <v>646.5480829319661</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.7555037884359</v>
+        <v>732.6596981028219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,43 +6448,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>193.8373036381272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>193.8373036381272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>807.7343733950158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.069692924718</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3886.7784005573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3886.7784005573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3886.7784005573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929844</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929844</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4404.185121492278</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4404.185121492278</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4114.767951455317</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3886.7784005573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3886.7784005573</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>618.8589595388348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1942790685366</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N33" t="n">
-        <v>1283.714934706155</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>1953.178696008814</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2473.479317744561</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>352.4535582568371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>352.4535582568371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>352.4535582568371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>534.1020230870769</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>1499.368801821511</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.889457459129</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.642871543091</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293934</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,10 +7177,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>779.5615433385053</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>779.5615433385053</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1548.780040143415</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4033.66834805521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4033.66834805521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4033.66834805521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3885.755254472817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4749.779469576118</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4504.73398292241</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4215.31681288545</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4215.31681288545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4215.31681288545</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>453.4534626624754</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>683.4165685308245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1003.751888060526</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N42" t="n">
-        <v>1808.163466324677</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3925.360448591585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3925.360448591585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3775.243809179249</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576119</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4525.994054365625</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4525.994054365625</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4525.994054365625</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4236.576884328664</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4236.576884328664</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4107.008913421824</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7675,25 +7675,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.505047571597</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1548.780040143415</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>385.5899330013836</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>11.32940647006973</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01402406068672</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720727</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>55.6859949621048</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>209.2592797981108</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>48.57599834538603</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>61.21880358154849</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>19.93847275495798</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>91.26539274301204</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>49.7886909224619</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>83.34289997689832</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>113.5373859051898</v>
+        <v>56.803693488688</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>36.80100737288754</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>66.3039873284668</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.05540537538701</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>42.66368888551951</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W37" t="n">
-        <v>82.98990566424388</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>9.542611536657603</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.31236215432324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.9275204083453</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="O2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.03523461802979e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759082</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905759104</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26484,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,13 +26493,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710317</v>
+        <v>9155.6734057102</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202548</v>
+        <v>599123.5526202545</v>
       </c>
       <c r="D6" t="n">
-        <v>599123.5526202543</v>
+        <v>599123.5526202547</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.9633592292</v>
+        <v>163148.3720995075</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361253</v>
+        <v>688308.4085764034</v>
       </c>
       <c r="G6" t="n">
-        <v>689282.9998361253</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="H6" t="n">
-        <v>689282.9998361256</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="I6" t="n">
-        <v>689282.9998361254</v>
+        <v>688308.4085764035</v>
       </c>
       <c r="J6" t="n">
-        <v>512859.7806435326</v>
+        <v>511885.1893838105</v>
       </c>
       <c r="K6" t="n">
-        <v>689282.9998361254</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="L6" t="n">
-        <v>689282.9998361255</v>
+        <v>688308.4085764035</v>
       </c>
       <c r="M6" t="n">
-        <v>554481.9846022879</v>
+        <v>553507.3933425663</v>
       </c>
       <c r="N6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="O6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764035</v>
       </c>
       <c r="P6" t="n">
-        <v>689282.9998361254</v>
+        <v>688308.4085764035</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>32.28919398984591</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>132.3899600890999</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>213.171886681092</v>
+        <v>197.4824421267164</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>130.0192566270795</v>
       </c>
       <c r="U5" t="n">
-        <v>250.8853366822696</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>130.3973135049846</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>68.08019533676928</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>254.958080655487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>35.40951857488805</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31141,7 +31141,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31150,19 +31150,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31378,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31612,31 +31612,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576417</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31840,31 +31840,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>158.0642534345934</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>408.9487365571561</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32077,19 +32077,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>126.0475280469432</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32098,10 +32098,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32235,7 +32235,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32320,10 +32320,10 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>50.84785354950861</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32332,13 +32332,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.7237666273861</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32551,28 +32551,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>127.7194943662963</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>81.10726598089832</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32788,31 +32788,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33025,19 +33025,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>221.7453664160006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33049,7 +33049,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33207,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.0697047810465</v>
@@ -33262,19 +33262,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33286,7 +33286,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33420,7 +33420,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961194</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33444,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S32" t="n">
         <v>76.0697047810465</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33520,7 +33520,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.51477688711927</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33736,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>57.60510326274931</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33897,13 +33897,13 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33973,31 +33973,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>428.9877183507994</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34213,7 +34213,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34225,7 +34225,7 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34368,7 +34368,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,22 +34456,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>179.5498352870708</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>390.3502189581784</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>660.2148113894411</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>53.23958542497639</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>449.6185578749248</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
@@ -35746,10 +35746,10 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>374.4188833774902</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.74199254136454</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>451.2905241942779</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>332.3733408131834</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686865</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.0270568457609</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>83.90392744164167</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178377</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>97.59617391701148</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178377</v>
@@ -36934,7 +36934,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
@@ -37168,7 +37168,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>151.6102905369468</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>381.1761330907309</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>776.9883806110196</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>359.83471838605</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>527.550497547291</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4480937.286157024</v>
+        <v>4485876.549006056</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482102.5643438146</v>
+        <v>549819.1876108</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>357.5319984100009</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>119.6421222550153</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>54.65520119711156</v>
+        <v>67.24036028042096</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>86.42906373057829</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>207.3602531902334</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>25.31590541686258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>83.85112090809197</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,7 +1189,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>183.1439721715195</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663478</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.950364805198</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>176.5317609831471</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0394746728263</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273909</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>34.22759348994853</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.56658743892525</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.93408156253768</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>216.1493758403564</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>164.7438675697013</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>136.9945492566072</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>185.8336559953612</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>13.41277313418354</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>39.11561436815803</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>37.75862782376885</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>145.5209865847982</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>169.7438101404424</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>84.99328957525786</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274131</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>114.1465743147272</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>116.6365880904753</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C2" t="n">
-        <v>1689.203741822952</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.938043216202</v>
+        <v>1288.480863874094</v>
       </c>
       <c r="E2" t="n">
-        <v>1330.938043216202</v>
+        <v>902.6926112758501</v>
       </c>
       <c r="F2" t="n">
-        <v>919.9521384265943</v>
+        <v>895.7471105266467</v>
       </c>
       <c r="G2" t="n">
-        <v>501.9883303247811</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>174.793610360784</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C4" t="n">
         <v>201.8560754027576</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>672.9217102699579</v>
+        <v>660.2094283676252</v>
       </c>
       <c r="W4" t="n">
-        <v>383.5045402329973</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X4" t="n">
-        <v>383.5045402329973</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5045402329973</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2433.669518756051</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2433.669518756051</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2102.60663141248</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1749.837976142366</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1376.372217881286</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="Y5" t="n">
-        <v>1376.372217881286</v>
+        <v>1550.100961840373</v>
       </c>
     </row>
     <row r="6">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355898</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583426</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C8" t="n">
-        <v>159.5099885583426</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5099885583426</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>159.5099885583426</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>152.5644878091392</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>138.6410837477301</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>138.6410837477301</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2062.314335550585</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1731.251448207015</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982761</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.1098286224644</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5020,73 +5020,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>264.0657286834807</v>
       </c>
       <c r="L12" t="n">
-        <v>894.5540770733951</v>
+        <v>510.8308565899445</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603097</v>
+        <v>1279.199002982406</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0701069575856</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C13" t="n">
-        <v>493.0701069575856</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="V13" t="n">
-        <v>964.135741824786</v>
+        <v>1133.15667891384</v>
       </c>
       <c r="W13" t="n">
-        <v>674.7185717878253</v>
+        <v>1133.15667891384</v>
       </c>
       <c r="X13" t="n">
-        <v>674.7185717878253</v>
+        <v>905.1671280158225</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.7185717878253</v>
+        <v>684.3745488722924</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822445</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,10 +5299,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5354,10 +5354,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
         <v>222.5746515181232</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432676</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4478345153607</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1264.422933715931</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1264.422933715931</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5509,7 +5509,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,13 +5594,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
         <v>1659.000326757765</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.5712828402495</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.396996252309</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.396996252309</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5846,10 +5846,10 @@
         <v>2283.893885873787</v>
       </c>
       <c r="O21" t="n">
-        <v>2612.943493278838</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1080.663557604408</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1080.663557604408</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>1080.663557604408</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>1080.663557604408</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>859.8709784608774</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>843.1711433963917</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C25" t="n">
-        <v>674.2349604684848</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>674.2349604684848</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1132.588313433352</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1132.588313433352</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="V25" t="n">
-        <v>1132.588313433352</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="W25" t="n">
-        <v>843.1711433963917</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X25" t="n">
-        <v>843.1711433963917</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.1711433963917</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.6596981028219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>563.7235151749151</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>563.7235151749151</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>1022.076868139783</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W28" t="n">
-        <v>732.6596981028219</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X28" t="n">
-        <v>732.6596981028219</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y28" t="n">
-        <v>732.6596981028219</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,43 +6448,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6508,7 +6508,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6645,25 +6645,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M36" t="n">
         <v>334.288126757867</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,55 +7387,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>677.9999391053083</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>677.9999391053083</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,22 +7639,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1046.241016464309</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1046.241016464309</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.241016464309</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>168.2574277065905</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>370.8623401849284</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849285</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.300219198790188</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>48.57599834538603</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>187.3199675684407</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.26539274301204</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>139.9867284210655</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>70.08797655822093</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>56.803693488688</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>149.2428031419701</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>66.3039873284668</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>273.1102252024075</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>158.8051956154452</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>248.4787245748085</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>52.39982339880507</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>82.39383318338562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>140.7163658137793</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>53.10024678390066</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>169.6007643081021</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="11">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642828</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="E2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754178</v>
@@ -26334,7 +26334,7 @@
         <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="J2" t="n">
         <v>782058.1194754177</v>
@@ -26343,13 +26343,13 @@
         <v>782058.1194754178</v>
       </c>
       <c r="L2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="M2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="M2" t="n">
-        <v>782058.1194754175</v>
-      </c>
       <c r="N2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="O2" t="n">
         <v>782058.1194754177</v>
@@ -26368,16 +26368,16 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.92357012157776e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759082</v>
+        <v>787.7936905759918</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759104</v>
+        <v>787.7936905759467</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.6734057102</v>
+        <v>9155.673405710113</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202545</v>
+        <v>599123.5526202543</v>
       </c>
       <c r="D6" t="n">
-        <v>599123.5526202547</v>
+        <v>599123.5526202546</v>
       </c>
       <c r="E6" t="n">
-        <v>163148.3720995075</v>
+        <v>164025.5042332574</v>
       </c>
       <c r="F6" t="n">
-        <v>688308.4085764034</v>
+        <v>689185.5407101528</v>
       </c>
       <c r="G6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="H6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101531</v>
       </c>
       <c r="I6" t="n">
-        <v>688308.4085764035</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="J6" t="n">
-        <v>511885.1893838105</v>
+        <v>512762.32151756</v>
       </c>
       <c r="K6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="L6" t="n">
-        <v>688308.4085764035</v>
+        <v>689185.5407101533</v>
       </c>
       <c r="M6" t="n">
-        <v>553507.3933425663</v>
+        <v>554384.525476316</v>
       </c>
       <c r="N6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101531</v>
       </c>
       <c r="O6" t="n">
-        <v>688308.4085764035</v>
+        <v>689185.5407101531</v>
       </c>
       <c r="P6" t="n">
-        <v>688308.4085764035</v>
+        <v>689185.5407101531</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>56.25217161079405</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>32.28919398984591</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>197.4824421267164</v>
+        <v>184.897283043407</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>130.0192566270795</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>162.3708474882356</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>120.1051426060687</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>68.08019533676928</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>68.08019533676983</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,13 +28089,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.604658557802081e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31144,7 +31144,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31153,16 +31153,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392672</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31612,31 +31612,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576417</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>158.0642534345934</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>276.1086239829166</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32092,7 +32092,7 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,28 +32308,28 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>50.84785354950861</v>
+        <v>218.8490678448243</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32557,31 +32557,31 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>81.10726598089832</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>91.84465193776708</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33444,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
         <v>76.0697047810465</v>
@@ -33523,7 +33523,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34234,7 +34234,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34368,7 +34368,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>390.3502189581784</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>624.1092862431368</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,7 +35971,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>374.4188833774902</v>
+        <v>542.4200976728059</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>332.3733408131834</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>34.28302029226025</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>343.1107267700522</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415665</v>
@@ -37171,7 +37171,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629101</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415665</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
